--- a/GetPrice.xlsx
+++ b/GetPrice.xlsx
@@ -1,24 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
   <workbookPr/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fadli\Katalon Studio\My First Web UI Project\TestData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fadli\git\KatalonDailyGetData2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr documentId="13_ncr:1_{E82F6205-295E-4BA2-9959-43EBA300699A}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7FEBAB0-A3DA-4AF4-8DDF-668893A72BD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowHeight="12576" windowWidth="23256" xWindow="-108" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="-108"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" r:id="rId1" sheetId="25"/>
-    <sheet name="exclude" r:id="rId2" sheetId="26"/>
+    <sheet name="Sheet1" sheetId="25" r:id="rId1"/>
+    <sheet name="exclude" sheetId="26" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="883" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="724" uniqueCount="222">
   <si>
     <t>Open</t>
   </si>
@@ -700,16 +700,12 @@
   </si>
   <si>
     <t>dr 6 okt 2023</t>
-  </si>
-  <si>
-    <t/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -745,19 +741,19 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
-    <xf applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="1" numFmtId="49" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -774,10 +770,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -812,7 +808,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -847,7 +843,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -941,21 +937,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -972,7 +968,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -1024,34 +1020,34 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{544CAD94-CE64-4478-AAF7-A5CC9CDFEF01}">
-  <dimension ref="A1:I161"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{544CAD94-CE64-4478-AAF7-A5CC9CDFEF01}">
+  <dimension ref="A1:H161"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" zoomScaleNormal="100">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" customWidth="true" style="1" width="7.77734375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="1" width="6.5546875" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" style="1" width="9.0" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="10.5546875" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="22.33203125" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="22.44140625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="31.33203125" collapsed="true"/>
+    <col min="2" max="2" width="7.77734375" style="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="6.5546875" style="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="9" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="10.5546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="22.33203125" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="22.44140625" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="31.33203125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="2">
-        <v>160</v>
+        <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -1076,9 +1072,6 @@
       <c r="B2" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E2" t="s">
-        <v>209</v>
-      </c>
       <c r="F2" t="s">
         <v>74</v>
       </c>
@@ -1740,7 +1733,7 @@
         <v>65</v>
       </c>
     </row>
-    <row customHeight="1" ht="15" r="48" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>67</v>
       </c>
@@ -3421,14 +3414,14 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8693F5EA-5949-4DDE-862F-0D1EA74F713F}">
-  <dimension ref="A1:H12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8693F5EA-5949-4DDE-862F-0D1EA74F713F}">
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A12" sqref="A12:G12"/>
@@ -3617,6 +3610,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/GetPrice.xlsx
+++ b/GetPrice.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fadli\git\KatalonDailyGetData2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7FEBAB0-A3DA-4AF4-8DDF-668893A72BD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D10A2B72-3F65-4FD4-B4AD-7815D73E66DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1031,7 +1031,7 @@
   <dimension ref="A1:H161"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/GetPrice.xlsx
+++ b/GetPrice.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fadli\git\KatalonDailyGetData2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D10A2B72-3F65-4FD4-B4AD-7815D73E66DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74E86C49-51B4-4B10-A49C-494A5D30B30E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="724" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="567" uniqueCount="222">
   <si>
     <t>Open</t>
   </si>
@@ -1031,7 +1031,7 @@
   <dimension ref="A1:H161"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1047,7 +1047,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="2">
-        <v>1</v>
+        <v>160</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -1083,9 +1083,6 @@
       <c r="B3" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E3" t="s">
-        <v>209</v>
-      </c>
       <c r="F3" t="s">
         <v>221</v>
       </c>
@@ -1100,9 +1097,6 @@
       <c r="B4" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E4" t="s">
-        <v>209</v>
-      </c>
       <c r="F4" t="s">
         <v>208</v>
       </c>
@@ -1117,9 +1111,6 @@
       <c r="B5" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E5" t="s">
-        <v>209</v>
-      </c>
       <c r="F5" t="s">
         <v>219</v>
       </c>
@@ -1134,9 +1125,6 @@
       <c r="B6" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E6" t="s">
-        <v>209</v>
-      </c>
       <c r="F6" t="s">
         <v>74</v>
       </c>
@@ -1148,9 +1136,6 @@
       <c r="B7" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E7" t="s">
-        <v>209</v>
-      </c>
       <c r="F7" t="s">
         <v>198</v>
       </c>
@@ -1162,9 +1147,6 @@
       <c r="B8" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E8" t="s">
-        <v>209</v>
-      </c>
       <c r="F8" t="s">
         <v>74</v>
       </c>
@@ -1187,9 +1169,6 @@
       <c r="B10" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E10" t="s">
-        <v>209</v>
-      </c>
       <c r="F10" t="s">
         <v>71</v>
       </c>
@@ -1201,9 +1180,6 @@
       <c r="B11" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E11" t="s">
-        <v>209</v>
-      </c>
       <c r="F11" t="s">
         <v>74</v>
       </c>
@@ -1215,9 +1191,6 @@
       <c r="B12" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E12" t="s">
-        <v>209</v>
-      </c>
       <c r="F12" t="s">
         <v>217</v>
       </c>
@@ -1230,9 +1203,6 @@
       <c r="B13" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E13" t="s">
-        <v>209</v>
-      </c>
       <c r="F13" t="s">
         <v>74</v>
       </c>
@@ -1245,9 +1215,7 @@
       <c r="B14" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E14" s="1" t="s">
-        <v>209</v>
-      </c>
+      <c r="E14" s="1"/>
       <c r="F14" t="s">
         <v>214</v>
       </c>
@@ -1263,9 +1231,7 @@
       <c r="B15" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E15" s="1" t="s">
-        <v>209</v>
-      </c>
+      <c r="E15" s="1"/>
       <c r="F15" t="s">
         <v>212</v>
       </c>
@@ -1281,9 +1247,6 @@
       <c r="B16" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E16" t="s">
-        <v>209</v>
-      </c>
       <c r="F16" t="s">
         <v>74</v>
       </c>
@@ -1295,9 +1258,7 @@
       <c r="B17" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E17" s="1" t="s">
-        <v>209</v>
-      </c>
+      <c r="E17" s="1"/>
       <c r="F17" t="s">
         <v>212</v>
       </c>
@@ -1313,9 +1274,7 @@
       <c r="B18" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E18" s="1" t="s">
-        <v>209</v>
-      </c>
+      <c r="E18" s="1"/>
       <c r="F18" t="s">
         <v>74</v>
       </c>
@@ -1328,9 +1287,6 @@
       <c r="B19" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E19" t="s">
-        <v>209</v>
-      </c>
       <c r="F19" t="s">
         <v>74</v>
       </c>
@@ -1342,9 +1298,6 @@
       <c r="B20" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E20" t="s">
-        <v>209</v>
-      </c>
       <c r="F20" t="s">
         <v>62</v>
       </c>
@@ -1359,9 +1312,6 @@
       <c r="B21" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E21" t="s">
-        <v>209</v>
-      </c>
       <c r="F21" t="s">
         <v>74</v>
       </c>
@@ -1373,9 +1323,6 @@
       <c r="B22" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E22" t="s">
-        <v>209</v>
-      </c>
       <c r="F22" t="s">
         <v>74</v>
       </c>
@@ -1387,9 +1334,6 @@
       <c r="B23" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E23" t="s">
-        <v>209</v>
-      </c>
       <c r="F23" t="s">
         <v>74</v>
       </c>
@@ -1401,9 +1345,6 @@
       <c r="B24" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E24" t="s">
-        <v>209</v>
-      </c>
       <c r="F24" t="s">
         <v>74</v>
       </c>
@@ -1415,9 +1356,6 @@
       <c r="B25" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E25" t="s">
-        <v>209</v>
-      </c>
       <c r="F25" t="s">
         <v>74</v>
       </c>
@@ -1429,9 +1367,6 @@
       <c r="B26" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E26" t="s">
-        <v>209</v>
-      </c>
       <c r="F26" t="s">
         <v>74</v>
       </c>
@@ -1443,9 +1378,6 @@
       <c r="B27" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E27" t="s">
-        <v>209</v>
-      </c>
       <c r="F27" t="s">
         <v>74</v>
       </c>
@@ -1457,9 +1389,6 @@
       <c r="B28" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E28" t="s">
-        <v>209</v>
-      </c>
       <c r="F28" t="s">
         <v>74</v>
       </c>
@@ -1471,9 +1400,6 @@
       <c r="B29" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E29" t="s">
-        <v>209</v>
-      </c>
       <c r="F29" t="s">
         <v>74</v>
       </c>
@@ -1485,9 +1411,6 @@
       <c r="B30" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E30" t="s">
-        <v>209</v>
-      </c>
       <c r="F30" t="s">
         <v>74</v>
       </c>
@@ -1499,9 +1422,6 @@
       <c r="B31" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E31" t="s">
-        <v>209</v>
-      </c>
       <c r="F31" t="s">
         <v>74</v>
       </c>
@@ -1513,9 +1433,6 @@
       <c r="B32" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E32" t="s">
-        <v>209</v>
-      </c>
       <c r="F32" t="s">
         <v>74</v>
       </c>
@@ -1527,9 +1444,6 @@
       <c r="B33" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E33" t="s">
-        <v>209</v>
-      </c>
       <c r="F33" t="s">
         <v>74</v>
       </c>
@@ -1541,9 +1455,6 @@
       <c r="B34" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E34" t="s">
-        <v>209</v>
-      </c>
       <c r="F34" t="s">
         <v>74</v>
       </c>
@@ -1555,9 +1466,6 @@
       <c r="B35" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E35" t="s">
-        <v>209</v>
-      </c>
       <c r="F35" t="s">
         <v>74</v>
       </c>
@@ -1569,9 +1477,6 @@
       <c r="B36" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E36" t="s">
-        <v>209</v>
-      </c>
       <c r="F36" t="s">
         <v>74</v>
       </c>
@@ -1583,9 +1488,6 @@
       <c r="B37" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E37" t="s">
-        <v>209</v>
-      </c>
       <c r="F37" t="s">
         <v>74</v>
       </c>
@@ -1597,9 +1499,6 @@
       <c r="B38" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E38" t="s">
-        <v>209</v>
-      </c>
       <c r="F38" t="s">
         <v>74</v>
       </c>
@@ -1611,9 +1510,6 @@
       <c r="B39" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E39" t="s">
-        <v>209</v>
-      </c>
       <c r="F39" t="s">
         <v>74</v>
       </c>
@@ -1625,9 +1521,6 @@
       <c r="B40" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E40" t="s">
-        <v>209</v>
-      </c>
       <c r="F40" t="s">
         <v>74</v>
       </c>
@@ -1639,9 +1532,6 @@
       <c r="B41" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E41" t="s">
-        <v>209</v>
-      </c>
       <c r="F41" t="s">
         <v>74</v>
       </c>
@@ -1653,9 +1543,6 @@
       <c r="B42" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E42" t="s">
-        <v>209</v>
-      </c>
       <c r="F42" t="s">
         <v>74</v>
       </c>
@@ -1667,9 +1554,6 @@
       <c r="B43" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E43" t="s">
-        <v>209</v>
-      </c>
       <c r="F43" t="s">
         <v>74</v>
       </c>
@@ -1681,9 +1565,6 @@
       <c r="B44" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E44" t="s">
-        <v>209</v>
-      </c>
       <c r="F44" t="s">
         <v>74</v>
       </c>
@@ -1695,9 +1576,6 @@
       <c r="B45" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E45" t="s">
-        <v>209</v>
-      </c>
       <c r="F45" t="s">
         <v>74</v>
       </c>
@@ -1709,9 +1587,6 @@
       <c r="B46" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E46" t="s">
-        <v>209</v>
-      </c>
       <c r="F46" t="s">
         <v>66</v>
       </c>
@@ -1726,9 +1601,6 @@
       <c r="B47" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E47" t="s">
-        <v>209</v>
-      </c>
       <c r="F47" t="s">
         <v>65</v>
       </c>
@@ -1740,9 +1612,6 @@
       <c r="B48" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E48" t="s">
-        <v>209</v>
-      </c>
       <c r="F48" t="s">
         <v>71</v>
       </c>
@@ -1754,9 +1623,6 @@
       <c r="B49" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E49" t="s">
-        <v>209</v>
-      </c>
       <c r="F49" t="s">
         <v>74</v>
       </c>
@@ -1768,9 +1634,6 @@
       <c r="B50" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E50" t="s">
-        <v>209</v>
-      </c>
       <c r="F50" t="s">
         <v>74</v>
       </c>
@@ -1782,9 +1645,6 @@
       <c r="B51" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E51" t="s">
-        <v>209</v>
-      </c>
       <c r="F51" t="s">
         <v>74</v>
       </c>
@@ -1796,9 +1656,6 @@
       <c r="B52" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E52" t="s">
-        <v>209</v>
-      </c>
       <c r="F52" t="s">
         <v>74</v>
       </c>
@@ -1810,9 +1667,6 @@
       <c r="B53" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E53" t="s">
-        <v>209</v>
-      </c>
       <c r="F53" t="s">
         <v>74</v>
       </c>
@@ -1824,9 +1678,6 @@
       <c r="B54" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E54" t="s">
-        <v>209</v>
-      </c>
       <c r="F54" t="s">
         <v>74</v>
       </c>
@@ -1838,9 +1689,6 @@
       <c r="B55" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E55" t="s">
-        <v>209</v>
-      </c>
       <c r="F55" t="s">
         <v>74</v>
       </c>
@@ -1852,9 +1700,6 @@
       <c r="B56" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E56" t="s">
-        <v>209</v>
-      </c>
       <c r="F56" t="s">
         <v>74</v>
       </c>
@@ -1866,9 +1711,6 @@
       <c r="B57" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E57" t="s">
-        <v>209</v>
-      </c>
       <c r="F57" t="s">
         <v>74</v>
       </c>
@@ -1880,9 +1722,6 @@
       <c r="B58" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E58" t="s">
-        <v>209</v>
-      </c>
       <c r="F58" t="s">
         <v>74</v>
       </c>
@@ -1894,9 +1733,6 @@
       <c r="B59" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E59" t="s">
-        <v>209</v>
-      </c>
       <c r="F59" t="s">
         <v>74</v>
       </c>
@@ -1908,9 +1744,6 @@
       <c r="B60" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E60" t="s">
-        <v>209</v>
-      </c>
       <c r="F60" t="s">
         <v>74</v>
       </c>
@@ -1922,9 +1755,6 @@
       <c r="B61" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E61" t="s">
-        <v>209</v>
-      </c>
       <c r="F61" t="s">
         <v>74</v>
       </c>
@@ -1936,9 +1766,6 @@
       <c r="B62" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E62" t="s">
-        <v>209</v>
-      </c>
       <c r="F62" t="s">
         <v>74</v>
       </c>
@@ -1950,9 +1777,6 @@
       <c r="B63" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E63" t="s">
-        <v>209</v>
-      </c>
       <c r="F63" t="s">
         <v>74</v>
       </c>
@@ -1964,9 +1788,6 @@
       <c r="B64" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E64" t="s">
-        <v>209</v>
-      </c>
       <c r="F64" t="s">
         <v>74</v>
       </c>
@@ -1978,9 +1799,6 @@
       <c r="B65" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E65" t="s">
-        <v>209</v>
-      </c>
       <c r="F65" t="s">
         <v>74</v>
       </c>
@@ -1992,9 +1810,6 @@
       <c r="B66" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E66" t="s">
-        <v>209</v>
-      </c>
       <c r="F66" t="s">
         <v>74</v>
       </c>
@@ -2006,9 +1821,6 @@
       <c r="B67" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E67" t="s">
-        <v>209</v>
-      </c>
       <c r="F67" t="s">
         <v>74</v>
       </c>
@@ -2020,9 +1832,6 @@
       <c r="B68" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E68" t="s">
-        <v>209</v>
-      </c>
       <c r="F68" t="s">
         <v>74</v>
       </c>
@@ -2034,9 +1843,6 @@
       <c r="B69" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E69" t="s">
-        <v>209</v>
-      </c>
       <c r="F69" t="s">
         <v>74</v>
       </c>
@@ -2048,9 +1854,6 @@
       <c r="B70" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E70" t="s">
-        <v>209</v>
-      </c>
       <c r="F70" t="s">
         <v>74</v>
       </c>
@@ -2062,9 +1865,6 @@
       <c r="B71" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E71" t="s">
-        <v>209</v>
-      </c>
       <c r="F71" t="s">
         <v>74</v>
       </c>
@@ -2076,9 +1876,6 @@
       <c r="B72" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E72" t="s">
-        <v>209</v>
-      </c>
       <c r="F72" t="s">
         <v>74</v>
       </c>
@@ -2090,9 +1887,6 @@
       <c r="B73" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E73" t="s">
-        <v>209</v>
-      </c>
       <c r="F73" t="s">
         <v>74</v>
       </c>
@@ -2104,9 +1898,6 @@
       <c r="B74" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E74" t="s">
-        <v>209</v>
-      </c>
       <c r="F74" t="s">
         <v>74</v>
       </c>
@@ -2118,9 +1909,6 @@
       <c r="B75" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E75" t="s">
-        <v>209</v>
-      </c>
       <c r="F75" t="s">
         <v>74</v>
       </c>
@@ -2132,9 +1920,6 @@
       <c r="B76" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E76" t="s">
-        <v>209</v>
-      </c>
       <c r="F76" t="s">
         <v>74</v>
       </c>
@@ -2146,9 +1931,6 @@
       <c r="B77" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E77" t="s">
-        <v>209</v>
-      </c>
       <c r="F77" t="s">
         <v>74</v>
       </c>
@@ -2160,9 +1942,6 @@
       <c r="B78" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E78" t="s">
-        <v>209</v>
-      </c>
       <c r="F78" t="s">
         <v>74</v>
       </c>
@@ -2174,9 +1953,6 @@
       <c r="B79" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E79" t="s">
-        <v>209</v>
-      </c>
       <c r="F79" t="s">
         <v>74</v>
       </c>
@@ -2188,9 +1964,6 @@
       <c r="B80" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E80" t="s">
-        <v>209</v>
-      </c>
       <c r="F80" t="s">
         <v>76</v>
       </c>
@@ -2205,9 +1978,6 @@
       <c r="B81" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E81" t="s">
-        <v>209</v>
-      </c>
       <c r="F81" t="s">
         <v>74</v>
       </c>
@@ -2219,9 +1989,6 @@
       <c r="B82" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E82" t="s">
-        <v>209</v>
-      </c>
       <c r="F82" t="s">
         <v>74</v>
       </c>
@@ -2233,9 +2000,6 @@
       <c r="B83" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E83" t="s">
-        <v>209</v>
-      </c>
       <c r="F83" t="s">
         <v>74</v>
       </c>
@@ -2247,9 +2011,6 @@
       <c r="B84" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E84" t="s">
-        <v>209</v>
-      </c>
       <c r="F84" t="s">
         <v>74</v>
       </c>
@@ -2261,9 +2022,6 @@
       <c r="B85" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E85" t="s">
-        <v>209</v>
-      </c>
       <c r="F85" t="s">
         <v>74</v>
       </c>
@@ -2275,9 +2033,6 @@
       <c r="B86" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E86" t="s">
-        <v>209</v>
-      </c>
       <c r="F86" t="s">
         <v>74</v>
       </c>
@@ -2289,9 +2044,6 @@
       <c r="B87" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E87" t="s">
-        <v>209</v>
-      </c>
       <c r="F87" t="s">
         <v>74</v>
       </c>
@@ -2303,9 +2055,6 @@
       <c r="B88" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E88" t="s">
-        <v>209</v>
-      </c>
       <c r="F88" t="s">
         <v>74</v>
       </c>
@@ -2317,9 +2066,6 @@
       <c r="B89" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E89" t="s">
-        <v>209</v>
-      </c>
       <c r="F89" t="s">
         <v>74</v>
       </c>
@@ -2331,9 +2077,6 @@
       <c r="B90" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E90" t="s">
-        <v>209</v>
-      </c>
       <c r="F90" t="s">
         <v>74</v>
       </c>
@@ -2345,9 +2088,6 @@
       <c r="B91" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E91" t="s">
-        <v>209</v>
-      </c>
       <c r="F91" t="s">
         <v>74</v>
       </c>
@@ -2359,9 +2099,6 @@
       <c r="B92" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E92" t="s">
-        <v>209</v>
-      </c>
       <c r="F92" t="s">
         <v>74</v>
       </c>
@@ -2373,9 +2110,6 @@
       <c r="B93" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E93" t="s">
-        <v>209</v>
-      </c>
       <c r="F93" t="s">
         <v>74</v>
       </c>
@@ -2387,9 +2121,6 @@
       <c r="B94" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E94" t="s">
-        <v>209</v>
-      </c>
       <c r="F94" t="s">
         <v>74</v>
       </c>
@@ -2401,9 +2132,6 @@
       <c r="B95" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E95" t="s">
-        <v>209</v>
-      </c>
       <c r="F95" t="s">
         <v>74</v>
       </c>
@@ -2415,9 +2143,6 @@
       <c r="B96" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E96" t="s">
-        <v>209</v>
-      </c>
       <c r="F96" t="s">
         <v>74</v>
       </c>
@@ -2429,9 +2154,6 @@
       <c r="B97" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E97" t="s">
-        <v>209</v>
-      </c>
       <c r="F97" t="s">
         <v>74</v>
       </c>
@@ -2443,9 +2165,6 @@
       <c r="B98" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E98" t="s">
-        <v>209</v>
-      </c>
       <c r="F98" t="s">
         <v>74</v>
       </c>
@@ -2457,9 +2176,6 @@
       <c r="B99" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E99" t="s">
-        <v>209</v>
-      </c>
       <c r="F99" t="s">
         <v>74</v>
       </c>
@@ -2471,9 +2187,6 @@
       <c r="B100" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E100" t="s">
-        <v>209</v>
-      </c>
       <c r="F100" t="s">
         <v>74</v>
       </c>
@@ -2485,9 +2198,6 @@
       <c r="B101" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E101" t="s">
-        <v>209</v>
-      </c>
       <c r="F101" t="s">
         <v>74</v>
       </c>
@@ -2499,9 +2209,6 @@
       <c r="B102" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E102" t="s">
-        <v>209</v>
-      </c>
       <c r="F102" t="s">
         <v>172</v>
       </c>
@@ -2516,9 +2223,6 @@
       <c r="B103" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E103" t="s">
-        <v>209</v>
-      </c>
       <c r="F103" t="s">
         <v>173</v>
       </c>
@@ -2530,9 +2234,6 @@
       <c r="B104" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E104" t="s">
-        <v>209</v>
-      </c>
       <c r="F104" t="s">
         <v>174</v>
       </c>
@@ -2547,9 +2248,6 @@
       <c r="B105" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="E105" t="s">
-        <v>209</v>
-      </c>
       <c r="F105" t="s">
         <v>176</v>
       </c>
@@ -2564,9 +2262,6 @@
       <c r="B106" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E106" t="s">
-        <v>209</v>
-      </c>
       <c r="F106" t="s">
         <v>74</v>
       </c>
@@ -2578,9 +2273,6 @@
       <c r="B107" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E107" t="s">
-        <v>209</v>
-      </c>
       <c r="F107" t="s">
         <v>74</v>
       </c>
@@ -2592,9 +2284,6 @@
       <c r="B108" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E108" t="s">
-        <v>209</v>
-      </c>
       <c r="F108" t="s">
         <v>74</v>
       </c>
@@ -2606,9 +2295,6 @@
       <c r="B109" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E109" t="s">
-        <v>209</v>
-      </c>
       <c r="F109" t="s">
         <v>74</v>
       </c>
@@ -2620,9 +2306,6 @@
       <c r="B110" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E110" t="s">
-        <v>209</v>
-      </c>
       <c r="F110" t="s">
         <v>74</v>
       </c>
@@ -2634,9 +2317,6 @@
       <c r="B111" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E111" t="s">
-        <v>209</v>
-      </c>
       <c r="F111" t="s">
         <v>74</v>
       </c>
@@ -2648,9 +2328,6 @@
       <c r="B112" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E112" t="s">
-        <v>209</v>
-      </c>
       <c r="F112" t="s">
         <v>74</v>
       </c>
@@ -2662,9 +2339,6 @@
       <c r="B113" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E113" t="s">
-        <v>209</v>
-      </c>
       <c r="F113" t="s">
         <v>74</v>
       </c>
@@ -2676,9 +2350,6 @@
       <c r="B114" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E114" t="s">
-        <v>209</v>
-      </c>
       <c r="F114" t="s">
         <v>74</v>
       </c>
@@ -2690,9 +2361,6 @@
       <c r="B115" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E115" t="s">
-        <v>209</v>
-      </c>
       <c r="F115" t="s">
         <v>178</v>
       </c>
@@ -2707,9 +2375,6 @@
       <c r="B116" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E116" t="s">
-        <v>209</v>
-      </c>
       <c r="F116" t="s">
         <v>74</v>
       </c>
@@ -2721,9 +2386,6 @@
       <c r="B117" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E117" t="s">
-        <v>209</v>
-      </c>
       <c r="F117" t="s">
         <v>74</v>
       </c>
@@ -2735,9 +2397,6 @@
       <c r="B118" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E118" t="s">
-        <v>209</v>
-      </c>
       <c r="F118" t="s">
         <v>74</v>
       </c>
@@ -2749,9 +2408,6 @@
       <c r="B119" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E119" t="s">
-        <v>209</v>
-      </c>
       <c r="F119" t="s">
         <v>74</v>
       </c>
@@ -2763,9 +2419,6 @@
       <c r="B120" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E120" t="s">
-        <v>209</v>
-      </c>
       <c r="F120" t="s">
         <v>74</v>
       </c>
@@ -2777,9 +2430,6 @@
       <c r="B121" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E121" t="s">
-        <v>209</v>
-      </c>
       <c r="F121" t="s">
         <v>74</v>
       </c>
@@ -2791,9 +2441,6 @@
       <c r="B122" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E122" t="s">
-        <v>209</v>
-      </c>
       <c r="F122" t="s">
         <v>74</v>
       </c>
@@ -2805,9 +2452,6 @@
       <c r="B123" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E123" t="s">
-        <v>209</v>
-      </c>
       <c r="F123" t="s">
         <v>74</v>
       </c>
@@ -2819,9 +2463,6 @@
       <c r="B124" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E124" t="s">
-        <v>209</v>
-      </c>
       <c r="F124" t="s">
         <v>74</v>
       </c>
@@ -2833,9 +2474,6 @@
       <c r="B125" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E125" t="s">
-        <v>209</v>
-      </c>
       <c r="F125" t="s">
         <v>74</v>
       </c>
@@ -2847,9 +2485,6 @@
       <c r="B126" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E126" t="s">
-        <v>209</v>
-      </c>
       <c r="F126" t="s">
         <v>74</v>
       </c>
@@ -2861,9 +2496,7 @@
       <c r="B127" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E127" s="1" t="s">
-        <v>209</v>
-      </c>
+      <c r="E127" s="1"/>
       <c r="F127" t="s">
         <v>179</v>
       </c>
@@ -2878,9 +2511,6 @@
       <c r="B128" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E128" t="s">
-        <v>209</v>
-      </c>
       <c r="F128" t="s">
         <v>180</v>
       </c>
@@ -2895,9 +2525,6 @@
       <c r="B129" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E129" t="s">
-        <v>209</v>
-      </c>
       <c r="F129" t="s">
         <v>66</v>
       </c>
@@ -2912,9 +2539,6 @@
       <c r="B130" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E130" t="s">
-        <v>209</v>
-      </c>
       <c r="F130" t="s">
         <v>66</v>
       </c>
@@ -2929,9 +2553,6 @@
       <c r="B131" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E131" t="s">
-        <v>209</v>
-      </c>
       <c r="F131" t="s">
         <v>181</v>
       </c>
@@ -2946,9 +2567,6 @@
       <c r="B132" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E132" t="s">
-        <v>209</v>
-      </c>
       <c r="F132" t="s">
         <v>181</v>
       </c>
@@ -2960,9 +2578,6 @@
       <c r="A133" t="s">
         <v>139</v>
       </c>
-      <c r="E133" t="s">
-        <v>209</v>
-      </c>
       <c r="F133" t="s">
         <v>182</v>
       </c>
@@ -2977,9 +2592,6 @@
       <c r="B134" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E134" t="s">
-        <v>209</v>
-      </c>
       <c r="F134" t="s">
         <v>183</v>
       </c>
@@ -2994,9 +2606,6 @@
       <c r="B135" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E135" t="s">
-        <v>209</v>
-      </c>
       <c r="F135" t="s">
         <v>184</v>
       </c>
@@ -3011,9 +2620,6 @@
       <c r="B136" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E136" t="s">
-        <v>209</v>
-      </c>
       <c r="F136" t="s">
         <v>185</v>
       </c>
@@ -3028,9 +2634,6 @@
       <c r="B137" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E137" t="s">
-        <v>209</v>
-      </c>
       <c r="F137" t="s">
         <v>65</v>
       </c>
@@ -3042,9 +2645,6 @@
       <c r="B138" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E138" t="s">
-        <v>209</v>
-      </c>
       <c r="F138" t="s">
         <v>65</v>
       </c>
@@ -3056,9 +2656,6 @@
       <c r="B139" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E139" t="s">
-        <v>209</v>
-      </c>
       <c r="F139" t="s">
         <v>186</v>
       </c>
@@ -3073,9 +2670,6 @@
       <c r="B140" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E140" t="s">
-        <v>209</v>
-      </c>
       <c r="F140" t="s">
         <v>187</v>
       </c>
@@ -3090,9 +2684,6 @@
       <c r="B141" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E141" t="s">
-        <v>209</v>
-      </c>
       <c r="F141" t="s">
         <v>188</v>
       </c>
@@ -3107,9 +2698,6 @@
       <c r="B142" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E142" t="s">
-        <v>209</v>
-      </c>
       <c r="F142" t="s">
         <v>189</v>
       </c>
@@ -3124,9 +2712,6 @@
       <c r="B143" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E143" t="s">
-        <v>209</v>
-      </c>
       <c r="F143" t="s">
         <v>190</v>
       </c>
@@ -3141,9 +2726,6 @@
       <c r="B144" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E144" t="s">
-        <v>209</v>
-      </c>
       <c r="F144" t="s">
         <v>62</v>
       </c>
@@ -3158,9 +2740,6 @@
       <c r="B145" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E145" t="s">
-        <v>209</v>
-      </c>
       <c r="F145" t="s">
         <v>191</v>
       </c>
@@ -3175,9 +2754,6 @@
       <c r="B146" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E146" t="s">
-        <v>209</v>
-      </c>
       <c r="F146" t="s">
         <v>192</v>
       </c>
@@ -3192,9 +2768,6 @@
       <c r="B147" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E147" t="s">
-        <v>209</v>
-      </c>
       <c r="F147" t="s">
         <v>193</v>
       </c>
@@ -3209,9 +2782,6 @@
       <c r="B148" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E148" t="s">
-        <v>209</v>
-      </c>
       <c r="F148" t="s">
         <v>194</v>
       </c>
@@ -3226,9 +2796,6 @@
       <c r="B149" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E149" t="s">
-        <v>209</v>
-      </c>
       <c r="F149" t="s">
         <v>195</v>
       </c>
@@ -3243,9 +2810,6 @@
       <c r="B150" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E150" t="s">
-        <v>209</v>
-      </c>
       <c r="F150" t="s">
         <v>195</v>
       </c>
@@ -3260,9 +2824,6 @@
       <c r="B151" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E151" t="s">
-        <v>209</v>
-      </c>
       <c r="F151" t="s">
         <v>196</v>
       </c>
@@ -3277,9 +2838,6 @@
       <c r="B152" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E152" t="s">
-        <v>209</v>
-      </c>
       <c r="F152" t="s">
         <v>173</v>
       </c>
@@ -3291,9 +2849,6 @@
       <c r="B153" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E153" t="s">
-        <v>209</v>
-      </c>
       <c r="F153" t="s">
         <v>197</v>
       </c>
@@ -3308,9 +2863,6 @@
       <c r="B154" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E154" t="s">
-        <v>209</v>
-      </c>
       <c r="F154" t="s">
         <v>198</v>
       </c>
@@ -3322,9 +2874,6 @@
       <c r="B155" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E155" t="s">
-        <v>209</v>
-      </c>
       <c r="F155" t="s">
         <v>71</v>
       </c>
@@ -3336,9 +2885,6 @@
       <c r="B156" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E156" t="s">
-        <v>209</v>
-      </c>
       <c r="F156" t="s">
         <v>198</v>
       </c>
@@ -3350,9 +2896,6 @@
       <c r="B157" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E157" t="s">
-        <v>209</v>
-      </c>
       <c r="F157" t="s">
         <v>198</v>
       </c>
@@ -3364,9 +2907,6 @@
       <c r="B158" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E158" t="s">
-        <v>209</v>
-      </c>
       <c r="F158" t="s">
         <v>199</v>
       </c>
@@ -3381,9 +2921,6 @@
       <c r="B159" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E159" t="s">
-        <v>209</v>
-      </c>
       <c r="F159" t="s">
         <v>201</v>
       </c>
@@ -3394,9 +2931,6 @@
       </c>
       <c r="B160" s="1" t="s">
         <v>54</v>
-      </c>
-      <c r="E160" t="s">
-        <v>209</v>
       </c>
       <c r="F160" t="s">
         <v>199</v>

--- a/GetPrice.xlsx
+++ b/GetPrice.xlsx
@@ -1,24 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fadli\git\KatalonDailyGetData2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74E86C49-51B4-4B10-A49C-494A5D30B30E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr documentId="13_ncr:1_{74E86C49-51B4-4B10-A49C-494A5D30B30E}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowHeight="12576" windowWidth="23256" xWindow="-108" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="-108"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="25" r:id="rId1"/>
-    <sheet name="exclude" sheetId="26" r:id="rId2"/>
+    <sheet name="Sheet1" r:id="rId1" sheetId="25"/>
+    <sheet name="exclude" r:id="rId2" sheetId="26"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="567" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="571" uniqueCount="223">
   <si>
     <t>Open</t>
   </si>
@@ -700,12 +700,16 @@
   </si>
   <si>
     <t>dr 6 okt 2023</t>
+  </si>
+  <si>
+    <t/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -741,19 +745,19 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="1" numFmtId="49" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -770,10 +774,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -808,7 +812,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -843,7 +847,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -937,21 +941,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -968,7 +972,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -1020,29 +1024,29 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{544CAD94-CE64-4478-AAF7-A5CC9CDFEF01}">
-  <dimension ref="A1:H161"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{544CAD94-CE64-4478-AAF7-A5CC9CDFEF01}">
+  <dimension ref="A1:I161"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0" zoomScaleNormal="100">
       <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="7.77734375" style="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="6.5546875" style="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="9" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="10.5546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="22.33203125" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="22.44140625" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="31.33203125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" customWidth="true" style="1" width="7.77734375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="1" width="6.5546875" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="1" width="9.0" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="10.5546875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="22.33203125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="22.44140625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="31.33203125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
@@ -1072,6 +1076,9 @@
       <c r="B2" s="1" t="s">
         <v>54</v>
       </c>
+      <c r="E2" t="s">
+        <v>209</v>
+      </c>
       <c r="F2" t="s">
         <v>74</v>
       </c>
@@ -1083,6 +1090,9 @@
       <c r="B3" s="1" t="s">
         <v>54</v>
       </c>
+      <c r="E3" t="s">
+        <v>209</v>
+      </c>
       <c r="F3" t="s">
         <v>221</v>
       </c>
@@ -1605,7 +1615,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="15" r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>67</v>
       </c>
@@ -2948,14 +2958,14 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8693F5EA-5949-4DDE-862F-0D1EA74F713F}">
-  <dimension ref="A1:G12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8693F5EA-5949-4DDE-862F-0D1EA74F713F}">
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A12" sqref="A12:G12"/>
@@ -3144,6 +3154,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>